--- a/CarMaster.xlsx
+++ b/CarMaster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Відкладено</t>
+  </si>
+  <si>
+    <t>BlogSlider + adapt + PP</t>
+  </si>
+  <si>
+    <t>VideoPopUp + adapt + PP</t>
+  </si>
+  <si>
+    <t>Paragraph + adapt + PP</t>
+  </si>
+  <si>
+    <t>ContactUs + adapt + PP</t>
+  </si>
+  <si>
+    <t>CarSlider + adapt + PP</t>
   </si>
 </sst>
 </file>
@@ -563,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +840,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="13" t="s">
@@ -841,11 +856,11 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
-        <f>SUM(D17:D35)</f>
-        <v>63.5</v>
+        <f>SUM(D17:D40)</f>
+        <v>80.5</v>
       </c>
       <c r="E16" s="11">
-        <f>SUM(E17:E35)</f>
+        <f>SUM(E17:E40)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1123,97 +1138,127 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>16</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13" t="s">
-        <v>45</v>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>17</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
-        <v>5</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13" t="s">
-        <v>45</v>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="5">
-        <f>SUM(D3,D4,D5,D6,D7,D8,D9,D10,D2,D11,D12,D13,D14,D15,D16,D36,D37)</f>
-        <v>164.5</v>
-      </c>
-      <c r="E38" s="5">
-        <f>SUM(E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,E14,E15,E16,E36,E37)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>16</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11">
+        <v>15</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>17</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5">
+        <f>SUM(D3,D4,D5,D6,D7,D8,D9,D10,D2,D11,D12,D13,D14,D15,D16,D41,D42)</f>
+        <v>188.5</v>
+      </c>
+      <c r="E43" s="5">
+        <f>SUM(E2,E3,E4,E5,E6,E7,E8,E9,E10,E11,E12,E13,E14,E15,E16,E41,E42)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">

--- a/CarMaster.xlsx
+++ b/CarMaster.xlsx
@@ -165,13 +165,13 @@
     <t>VideoPopUp + adapt + PP</t>
   </si>
   <si>
-    <t>Paragraph + adapt + PP</t>
-  </si>
-  <si>
     <t>ContactUs + adapt + PP</t>
   </si>
   <si>
     <t>CarSlider + adapt + PP</t>
+  </si>
+  <si>
+    <t>CardWithIcon + adapt + PP</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1170,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5">
@@ -1185,7 +1185,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5">
@@ -1200,7 +1200,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5">
